--- a/TCC EXCEL FILES/TCC 2015.xlsx
+++ b/TCC EXCEL FILES/TCC 2015.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NodeJS WebApps\JSONFILEUPLOAD\TCC EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCE78C6-212F-4A62-91D2-BA98D4C796F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DB45FF-932B-497A-A625-098A0A56EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="945">
   <si>
     <t>Judges Names</t>
   </si>
@@ -2852,6 +2852,9 @@
   </si>
   <si>
     <t>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/143688/index.do</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -3228,15 +3231,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M261"/>
+  <dimension ref="A1:N261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3274,10 +3277,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>944</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3314,11 +3320,14 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3355,11 +3364,14 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3396,11 +3408,14 @@
       <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3437,11 +3452,14 @@
       <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3478,11 +3496,14 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3519,11 +3540,14 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -3560,11 +3584,14 @@
       <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3601,11 +3628,14 @@
       <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3642,11 +3672,14 @@
       <c r="L10" t="s">
         <v>23</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -3683,11 +3716,14 @@
       <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3724,11 +3760,14 @@
       <c r="L12" t="s">
         <v>23</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -3765,11 +3804,14 @@
       <c r="L13" t="s">
         <v>22</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -3806,11 +3848,14 @@
       <c r="L14" t="s">
         <v>22</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3847,11 +3892,14 @@
       <c r="L15" t="s">
         <v>22</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -3888,11 +3936,14 @@
       <c r="L16" t="s">
         <v>22</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3929,11 +3980,14 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3970,11 +4024,14 @@
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -4011,11 +4068,14 @@
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4052,11 +4112,14 @@
       <c r="L20" t="s">
         <v>22</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -4093,11 +4156,14 @@
       <c r="L21" t="s">
         <v>22</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -4134,11 +4200,14 @@
       <c r="L22" t="s">
         <v>22</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -4175,11 +4244,14 @@
       <c r="L23" t="s">
         <v>22</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -4216,11 +4288,14 @@
       <c r="L24" t="s">
         <v>22</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -4257,11 +4332,14 @@
       <c r="L25" t="s">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -4298,11 +4376,14 @@
       <c r="L26" t="s">
         <v>22</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4339,11 +4420,14 @@
       <c r="L27" t="s">
         <v>23</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -4380,11 +4464,14 @@
       <c r="L28" t="s">
         <v>22</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -4421,11 +4508,14 @@
       <c r="L29" t="s">
         <v>23</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>167</v>
       </c>
@@ -4462,11 +4552,14 @@
       <c r="L30" t="s">
         <v>22</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -4503,11 +4596,14 @@
       <c r="L31" t="s">
         <v>22</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -4544,11 +4640,14 @@
       <c r="L32" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -4585,11 +4684,14 @@
       <c r="L33" t="s">
         <v>22</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -4626,11 +4728,14 @@
       <c r="L34" t="s">
         <v>22</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -4667,11 +4772,14 @@
       <c r="L35" t="s">
         <v>23</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -4708,11 +4816,14 @@
       <c r="L36" t="s">
         <v>23</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -4749,11 +4860,14 @@
       <c r="L37" t="s">
         <v>22</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>126</v>
       </c>
@@ -4790,11 +4904,14 @@
       <c r="L38" t="s">
         <v>22</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -4831,11 +4948,14 @@
       <c r="L39" t="s">
         <v>22</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -4872,11 +4992,14 @@
       <c r="L40" t="s">
         <v>23</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -4913,11 +5036,14 @@
       <c r="L41" t="s">
         <v>22</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4954,11 +5080,14 @@
       <c r="L42" t="s">
         <v>23</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>221</v>
       </c>
@@ -4995,11 +5124,14 @@
       <c r="L43" t="s">
         <v>22</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -5036,11 +5168,14 @@
       <c r="L44" t="s">
         <v>22</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -5077,11 +5212,14 @@
       <c r="L45" t="s">
         <v>22</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -5118,11 +5256,14 @@
       <c r="L46" t="s">
         <v>22</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -5159,11 +5300,14 @@
       <c r="L47" t="s">
         <v>22</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -5200,11 +5344,14 @@
       <c r="L48" t="s">
         <v>22</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -5241,11 +5388,14 @@
       <c r="L49" t="s">
         <v>22</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -5282,11 +5432,14 @@
       <c r="L50" t="s">
         <v>23</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -5323,11 +5476,14 @@
       <c r="L51" t="s">
         <v>23</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -5364,11 +5520,14 @@
       <c r="L52" t="s">
         <v>22</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -5405,11 +5564,14 @@
       <c r="L53" t="s">
         <v>22</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>176</v>
       </c>
@@ -5446,11 +5608,14 @@
       <c r="L54" t="s">
         <v>22</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -5487,11 +5652,14 @@
       <c r="L55" t="s">
         <v>23</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -5528,11 +5696,14 @@
       <c r="L56" t="s">
         <v>23</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -5569,11 +5740,14 @@
       <c r="L57" t="s">
         <v>23</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -5610,11 +5784,14 @@
       <c r="L58" t="s">
         <v>23</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>126</v>
       </c>
@@ -5651,11 +5828,14 @@
       <c r="L59" t="s">
         <v>22</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -5692,11 +5872,14 @@
       <c r="L60" t="s">
         <v>22</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>273</v>
       </c>
@@ -5733,11 +5916,14 @@
       <c r="L61" t="s">
         <v>23</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -5774,11 +5960,14 @@
       <c r="L62" t="s">
         <v>23</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -5815,11 +6004,14 @@
       <c r="L63" t="s">
         <v>23</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -5856,11 +6048,14 @@
       <c r="L64" t="s">
         <v>23</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>301</v>
       </c>
@@ -5897,11 +6092,14 @@
       <c r="L65" t="s">
         <v>23</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -5938,11 +6136,14 @@
       <c r="L66" t="s">
         <v>22</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -5979,11 +6180,14 @@
       <c r="L67" t="s">
         <v>22</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -6020,11 +6224,14 @@
       <c r="L68" t="s">
         <v>22</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>316</v>
       </c>
@@ -6061,11 +6268,14 @@
       <c r="L69" t="s">
         <v>22</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -6102,11 +6312,14 @@
       <c r="L70" t="s">
         <v>23</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -6143,11 +6356,14 @@
       <c r="L71" t="s">
         <v>23</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>273</v>
       </c>
@@ -6184,11 +6400,14 @@
       <c r="L72" t="s">
         <v>23</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -6225,11 +6444,14 @@
       <c r="L73" t="s">
         <v>22</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -6266,11 +6488,14 @@
       <c r="L74" t="s">
         <v>22</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>273</v>
       </c>
@@ -6307,11 +6532,14 @@
       <c r="L75" t="s">
         <v>23</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>167</v>
       </c>
@@ -6348,11 +6576,14 @@
       <c r="L76" t="s">
         <v>22</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>188</v>
       </c>
@@ -6389,11 +6620,14 @@
       <c r="L77" t="s">
         <v>23</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -6430,11 +6664,14 @@
       <c r="L78" t="s">
         <v>22</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>348</v>
       </c>
@@ -6471,11 +6708,14 @@
       <c r="L79" t="s">
         <v>22</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -6512,11 +6752,14 @@
       <c r="L80" t="s">
         <v>23</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>355</v>
       </c>
@@ -6553,11 +6796,14 @@
       <c r="L81" t="s">
         <v>22</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>359</v>
       </c>
@@ -6594,11 +6840,14 @@
       <c r="L82" t="s">
         <v>23</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>363</v>
       </c>
@@ -6635,11 +6884,14 @@
       <c r="L83" t="s">
         <v>22</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -6676,11 +6928,14 @@
       <c r="L84" t="s">
         <v>22</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>116</v>
       </c>
@@ -6717,11 +6972,14 @@
       <c r="L85" t="s">
         <v>23</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>374</v>
       </c>
@@ -6758,11 +7016,14 @@
       <c r="L86" t="s">
         <v>23</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -6799,11 +7060,14 @@
       <c r="L87" t="s">
         <v>22</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>65</v>
       </c>
@@ -6840,11 +7104,14 @@
       <c r="L88" t="s">
         <v>23</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>167</v>
       </c>
@@ -6881,11 +7148,14 @@
       <c r="L89" t="s">
         <v>22</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -6922,11 +7192,14 @@
       <c r="L90" t="s">
         <v>23</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -6963,11 +7236,14 @@
       <c r="L91" t="s">
         <v>23</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -7004,11 +7280,14 @@
       <c r="L92" t="s">
         <v>23</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -7045,11 +7324,14 @@
       <c r="L93" t="s">
         <v>23</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -7086,11 +7368,14 @@
       <c r="L94" t="s">
         <v>23</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -7127,11 +7412,14 @@
       <c r="L95" t="s">
         <v>22</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -7168,11 +7456,14 @@
       <c r="L96" t="s">
         <v>22</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -7209,11 +7500,14 @@
       <c r="L97" t="s">
         <v>22</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>65</v>
       </c>
@@ -7250,11 +7544,14 @@
       <c r="L98" t="s">
         <v>23</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>25</v>
       </c>
@@ -7291,11 +7588,14 @@
       <c r="L99" t="s">
         <v>22</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -7332,11 +7632,14 @@
       <c r="L100" t="s">
         <v>23</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>78</v>
       </c>
@@ -7373,11 +7676,14 @@
       <c r="L101" t="s">
         <v>23</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>71</v>
       </c>
@@ -7414,11 +7720,14 @@
       <c r="L102" t="s">
         <v>23</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>65</v>
       </c>
@@ -7455,11 +7764,14 @@
       <c r="L103" t="s">
         <v>23</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>78</v>
       </c>
@@ -7496,11 +7808,14 @@
       <c r="L104" t="s">
         <v>23</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>188</v>
       </c>
@@ -7537,11 +7852,14 @@
       <c r="L105" t="s">
         <v>23</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -7578,11 +7896,14 @@
       <c r="L106" t="s">
         <v>22</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>45</v>
       </c>
@@ -7619,11 +7940,14 @@
       <c r="L107" t="s">
         <v>22</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>446</v>
       </c>
@@ -7660,11 +7984,14 @@
       <c r="L108" t="s">
         <v>22</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -7701,11 +8028,14 @@
       <c r="L109" t="s">
         <v>22</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>446</v>
       </c>
@@ -7742,11 +8072,14 @@
       <c r="L110" t="s">
         <v>22</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>45</v>
       </c>
@@ -7783,11 +8116,14 @@
       <c r="L111" t="s">
         <v>22</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -7824,11 +8160,14 @@
       <c r="L112" t="s">
         <v>23</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>463</v>
       </c>
@@ -7865,11 +8204,14 @@
       <c r="L113" t="s">
         <v>22</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>167</v>
       </c>
@@ -7906,11 +8248,14 @@
       <c r="L114" t="s">
         <v>22</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>273</v>
       </c>
@@ -7947,11 +8292,14 @@
       <c r="L115" t="s">
         <v>23</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>71</v>
       </c>
@@ -7988,11 +8336,14 @@
       <c r="L116" t="s">
         <v>23</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>95</v>
       </c>
@@ -8029,11 +8380,14 @@
       <c r="L117" t="s">
         <v>22</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -8070,11 +8424,14 @@
       <c r="L118" t="s">
         <v>23</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>88</v>
       </c>
@@ -8111,11 +8468,14 @@
       <c r="L119" t="s">
         <v>22</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>38</v>
       </c>
@@ -8152,11 +8512,14 @@
       <c r="L120" t="s">
         <v>22</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>144</v>
       </c>
@@ -8193,11 +8556,14 @@
       <c r="L121" t="s">
         <v>22</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -8234,11 +8600,14 @@
       <c r="L122" t="s">
         <v>22</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>78</v>
       </c>
@@ -8275,11 +8644,14 @@
       <c r="L123" t="s">
         <v>23</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -8316,11 +8688,14 @@
       <c r="L124" t="s">
         <v>22</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>504</v>
       </c>
@@ -8357,11 +8732,14 @@
       <c r="L125" t="s">
         <v>22</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>363</v>
       </c>
@@ -8398,11 +8776,14 @@
       <c r="L126" t="s">
         <v>22</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>273</v>
       </c>
@@ -8439,11 +8820,14 @@
       <c r="L127" t="s">
         <v>23</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>71</v>
       </c>
@@ -8480,11 +8864,14 @@
       <c r="L128" t="s">
         <v>23</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>188</v>
       </c>
@@ -8521,11 +8908,14 @@
       <c r="L129" t="s">
         <v>23</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>71</v>
       </c>
@@ -8562,11 +8952,14 @@
       <c r="L130" t="s">
         <v>23</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -8603,11 +8996,14 @@
       <c r="L131" t="s">
         <v>22</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -8644,11 +9040,14 @@
       <c r="L132" t="s">
         <v>22</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>531</v>
       </c>
@@ -8685,11 +9084,14 @@
       <c r="L133" t="s">
         <v>23</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>95</v>
       </c>
@@ -8726,11 +9128,14 @@
       <c r="L134" t="s">
         <v>22</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>538</v>
       </c>
@@ -8767,11 +9172,14 @@
       <c r="L135" t="s">
         <v>22</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>158</v>
       </c>
@@ -8808,11 +9216,14 @@
       <c r="L136" t="s">
         <v>22</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -8849,11 +9260,14 @@
       <c r="L137" t="s">
         <v>22</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -8890,11 +9304,14 @@
       <c r="L138" t="s">
         <v>22</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -8931,11 +9348,14 @@
       <c r="L139" t="s">
         <v>23</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -8972,11 +9392,14 @@
       <c r="L140" t="s">
         <v>22</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>301</v>
       </c>
@@ -9013,11 +9436,14 @@
       <c r="L141" t="s">
         <v>23</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>104</v>
       </c>
@@ -9054,11 +9480,14 @@
       <c r="L142" t="s">
         <v>22</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -9095,11 +9524,14 @@
       <c r="L143" t="s">
         <v>22</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>65</v>
       </c>
@@ -9136,11 +9568,14 @@
       <c r="L144" t="s">
         <v>23</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>573</v>
       </c>
@@ -9177,11 +9612,14 @@
       <c r="L145" t="s">
         <v>22</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -9218,11 +9656,14 @@
       <c r="L146" t="s">
         <v>22</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>95</v>
       </c>
@@ -9259,11 +9700,14 @@
       <c r="L147" t="s">
         <v>22</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>65</v>
       </c>
@@ -9300,11 +9744,14 @@
       <c r="L148" t="s">
         <v>23</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>538</v>
       </c>
@@ -9341,11 +9788,14 @@
       <c r="L149" t="s">
         <v>22</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>590</v>
       </c>
@@ -9382,11 +9832,14 @@
       <c r="L150" t="s">
         <v>22</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>116</v>
       </c>
@@ -9423,11 +9876,14 @@
       <c r="L151" t="s">
         <v>23</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>188</v>
       </c>
@@ -9464,11 +9920,14 @@
       <c r="L152" t="s">
         <v>23</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -9505,11 +9964,14 @@
       <c r="L153" t="s">
         <v>22</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>78</v>
       </c>
@@ -9546,11 +10008,14 @@
       <c r="L154" t="s">
         <v>23</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>38</v>
       </c>
@@ -9587,11 +10052,14 @@
       <c r="L155" t="s">
         <v>76</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>95</v>
       </c>
@@ -9628,11 +10096,14 @@
       <c r="L156" t="s">
         <v>22</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>446</v>
       </c>
@@ -9669,11 +10140,14 @@
       <c r="L157" t="s">
         <v>22</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>95</v>
       </c>
@@ -9710,11 +10184,14 @@
       <c r="L158" t="s">
         <v>22</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -9751,11 +10228,14 @@
       <c r="L159" t="s">
         <v>23</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>88</v>
       </c>
@@ -9792,11 +10272,14 @@
       <c r="L160" t="s">
         <v>22</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>71</v>
       </c>
@@ -9833,11 +10316,14 @@
       <c r="L161" t="s">
         <v>23</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -9874,11 +10360,14 @@
       <c r="L162" t="s">
         <v>22</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>95</v>
       </c>
@@ -9915,11 +10404,14 @@
       <c r="L163" t="s">
         <v>22</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>95</v>
       </c>
@@ -9956,11 +10448,14 @@
       <c r="L164" t="s">
         <v>22</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>25</v>
       </c>
@@ -9997,11 +10492,14 @@
       <c r="L165" t="s">
         <v>22</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>641</v>
       </c>
@@ -10038,11 +10536,14 @@
       <c r="L166" t="s">
         <v>22</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>126</v>
       </c>
@@ -10079,11 +10580,14 @@
       <c r="L167" t="s">
         <v>22</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>590</v>
       </c>
@@ -10120,11 +10624,14 @@
       <c r="L168" t="s">
         <v>22</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>78</v>
       </c>
@@ -10161,11 +10668,14 @@
       <c r="L169" t="s">
         <v>23</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>188</v>
       </c>
@@ -10202,11 +10712,14 @@
       <c r="L170" t="s">
         <v>23</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>95</v>
       </c>
@@ -10243,11 +10756,14 @@
       <c r="L171" t="s">
         <v>22</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>273</v>
       </c>
@@ -10284,11 +10800,14 @@
       <c r="L172" t="s">
         <v>23</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>104</v>
       </c>
@@ -10325,11 +10844,14 @@
       <c r="L173" t="s">
         <v>22</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>25</v>
       </c>
@@ -10366,11 +10888,14 @@
       <c r="L174" t="s">
         <v>22</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>60</v>
       </c>
@@ -10407,11 +10932,14 @@
       <c r="L175" t="s">
         <v>22</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>126</v>
       </c>
@@ -10448,11 +10976,14 @@
       <c r="L176" t="s">
         <v>22</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>60</v>
       </c>
@@ -10489,11 +11020,14 @@
       <c r="L177" t="s">
         <v>22</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>78</v>
       </c>
@@ -10530,11 +11064,14 @@
       <c r="L178" t="s">
         <v>23</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>682</v>
       </c>
@@ -10571,11 +11108,14 @@
       <c r="L179" t="s">
         <v>22</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>95</v>
       </c>
@@ -10612,11 +11152,14 @@
       <c r="L180" t="s">
         <v>22</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>116</v>
       </c>
@@ -10653,11 +11196,14 @@
       <c r="L181" t="s">
         <v>23</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>144</v>
       </c>
@@ -10694,11 +11240,14 @@
       <c r="L182" t="s">
         <v>22</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>104</v>
       </c>
@@ -10735,11 +11284,14 @@
       <c r="L183" t="s">
         <v>22</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>71</v>
       </c>
@@ -10776,11 +11328,14 @@
       <c r="L184" t="s">
         <v>23</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>78</v>
       </c>
@@ -10817,11 +11372,14 @@
       <c r="L185" t="s">
         <v>23</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>538</v>
       </c>
@@ -10858,11 +11416,14 @@
       <c r="L186" t="s">
         <v>22</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -10899,11 +11460,14 @@
       <c r="L187" t="s">
         <v>23</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>95</v>
       </c>
@@ -10940,11 +11504,14 @@
       <c r="L188" t="s">
         <v>22</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>45</v>
       </c>
@@ -10981,11 +11548,14 @@
       <c r="L189" t="s">
         <v>22</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>78</v>
       </c>
@@ -11022,11 +11592,14 @@
       <c r="L190" t="s">
         <v>23</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>88</v>
       </c>
@@ -11063,11 +11636,14 @@
       <c r="L191" t="s">
         <v>22</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>95</v>
       </c>
@@ -11104,11 +11680,14 @@
       <c r="L192" t="s">
         <v>22</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -11145,11 +11724,14 @@
       <c r="L193" t="s">
         <v>23</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>363</v>
       </c>
@@ -11186,11 +11768,14 @@
       <c r="L194" t="s">
         <v>22</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>65</v>
       </c>
@@ -11227,11 +11812,14 @@
       <c r="L195" t="s">
         <v>23</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>71</v>
       </c>
@@ -11268,11 +11856,14 @@
       <c r="L196" t="s">
         <v>23</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>355</v>
       </c>
@@ -11309,11 +11900,14 @@
       <c r="L197" t="s">
         <v>22</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>60</v>
       </c>
@@ -11350,11 +11944,14 @@
       <c r="L198" t="s">
         <v>22</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>45</v>
       </c>
@@ -11391,11 +11988,14 @@
       <c r="L199" t="s">
         <v>22</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -11432,11 +12032,14 @@
       <c r="L200" t="s">
         <v>22</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>60</v>
       </c>
@@ -11473,11 +12076,14 @@
       <c r="L201" t="s">
         <v>22</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>167</v>
       </c>
@@ -11514,11 +12120,14 @@
       <c r="L202" t="s">
         <v>22</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>88</v>
       </c>
@@ -11555,11 +12164,14 @@
       <c r="L203" t="s">
         <v>22</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>88</v>
       </c>
@@ -11596,11 +12208,14 @@
       <c r="L204" t="s">
         <v>22</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>538</v>
       </c>
@@ -11637,11 +12252,14 @@
       <c r="L205" t="s">
         <v>22</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>144</v>
       </c>
@@ -11678,11 +12296,14 @@
       <c r="L206" t="s">
         <v>22</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>446</v>
       </c>
@@ -11719,11 +12340,14 @@
       <c r="L207" t="s">
         <v>22</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>167</v>
       </c>
@@ -11760,11 +12384,14 @@
       <c r="L208" t="s">
         <v>22</v>
       </c>
-      <c r="M208" t="s">
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>776</v>
       </c>
@@ -11801,11 +12428,14 @@
       <c r="L209" t="s">
         <v>23</v>
       </c>
-      <c r="M209" t="s">
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>301</v>
       </c>
@@ -11842,11 +12472,14 @@
       <c r="L210" t="s">
         <v>23</v>
       </c>
-      <c r="M210" t="s">
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>301</v>
       </c>
@@ -11883,11 +12516,14 @@
       <c r="L211" t="s">
         <v>23</v>
       </c>
-      <c r="M211" t="s">
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>71</v>
       </c>
@@ -11924,11 +12560,14 @@
       <c r="L212" t="s">
         <v>23</v>
       </c>
-      <c r="M212" t="s">
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>104</v>
       </c>
@@ -11965,11 +12604,14 @@
       <c r="L213" t="s">
         <v>22</v>
       </c>
-      <c r="M213" t="s">
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>176</v>
       </c>
@@ -12006,11 +12648,14 @@
       <c r="L214" t="s">
         <v>22</v>
       </c>
-      <c r="M214" t="s">
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>38</v>
       </c>
@@ -12047,11 +12692,14 @@
       <c r="L215" t="s">
         <v>22</v>
       </c>
-      <c r="M215" t="s">
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>359</v>
       </c>
@@ -12088,11 +12736,14 @@
       <c r="L216" t="s">
         <v>23</v>
       </c>
-      <c r="M216" t="s">
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>45</v>
       </c>
@@ -12129,11 +12780,14 @@
       <c r="L217" t="s">
         <v>22</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -12170,11 +12824,14 @@
       <c r="L218" t="s">
         <v>23</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>126</v>
       </c>
@@ -12211,11 +12868,14 @@
       <c r="L219" t="s">
         <v>22</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>176</v>
       </c>
@@ -12252,11 +12912,14 @@
       <c r="L220" t="s">
         <v>22</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>71</v>
       </c>
@@ -12293,11 +12956,14 @@
       <c r="L221" t="s">
         <v>23</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>95</v>
       </c>
@@ -12334,11 +13000,14 @@
       <c r="L222" t="s">
         <v>22</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>126</v>
       </c>
@@ -12375,11 +13044,14 @@
       <c r="L223" t="s">
         <v>22</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>301</v>
       </c>
@@ -12416,11 +13088,14 @@
       <c r="L224" t="s">
         <v>23</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>538</v>
       </c>
@@ -12457,11 +13132,14 @@
       <c r="L225" t="s">
         <v>22</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>104</v>
       </c>
@@ -12498,11 +13176,14 @@
       <c r="L226" t="s">
         <v>22</v>
       </c>
-      <c r="M226" t="s">
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>60</v>
       </c>
@@ -12539,11 +13220,14 @@
       <c r="L227" t="s">
         <v>22</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>836</v>
       </c>
@@ -12580,11 +13264,14 @@
       <c r="L228" t="s">
         <v>22</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>301</v>
       </c>
@@ -12621,11 +13308,14 @@
       <c r="L229" t="s">
         <v>23</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>843</v>
       </c>
@@ -12662,11 +13352,14 @@
       <c r="L230" t="s">
         <v>22</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>463</v>
       </c>
@@ -12703,11 +13396,14 @@
       <c r="L231" t="s">
         <v>22</v>
       </c>
-      <c r="M231" t="s">
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -12744,11 +13440,14 @@
       <c r="L232" t="s">
         <v>23</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>65</v>
       </c>
@@ -12779,11 +13478,14 @@
       <c r="L233" t="s">
         <v>858</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -12820,11 +13522,14 @@
       <c r="L234" t="s">
         <v>22</v>
       </c>
-      <c r="M234" t="s">
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>45</v>
       </c>
@@ -12861,11 +13566,14 @@
       <c r="L235" t="s">
         <v>22</v>
       </c>
-      <c r="M235" t="s">
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>45</v>
       </c>
@@ -12902,11 +13610,14 @@
       <c r="L236" t="s">
         <v>22</v>
       </c>
-      <c r="M236" t="s">
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>167</v>
       </c>
@@ -12943,11 +13654,14 @@
       <c r="L237" t="s">
         <v>22</v>
       </c>
-      <c r="M237" t="s">
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>116</v>
       </c>
@@ -12984,11 +13698,14 @@
       <c r="L238" t="s">
         <v>23</v>
       </c>
-      <c r="M238" t="s">
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>95</v>
       </c>
@@ -13025,11 +13742,14 @@
       <c r="L239" t="s">
         <v>22</v>
       </c>
-      <c r="M239" t="s">
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>167</v>
       </c>
@@ -13066,11 +13786,14 @@
       <c r="L240" t="s">
         <v>22</v>
       </c>
-      <c r="M240" t="s">
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>78</v>
       </c>
@@ -13107,11 +13830,14 @@
       <c r="L241" t="s">
         <v>23</v>
       </c>
-      <c r="M241" t="s">
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>78</v>
       </c>
@@ -13148,11 +13874,14 @@
       <c r="L242" t="s">
         <v>23</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>71</v>
       </c>
@@ -13189,11 +13918,14 @@
       <c r="L243" t="s">
         <v>23</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>38</v>
       </c>
@@ -13230,11 +13962,14 @@
       <c r="L244" t="s">
         <v>22</v>
       </c>
-      <c r="M244" t="s">
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>104</v>
       </c>
@@ -13271,11 +14006,14 @@
       <c r="L245" t="s">
         <v>22</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>78</v>
       </c>
@@ -13312,11 +14050,14 @@
       <c r="L246" t="s">
         <v>23</v>
       </c>
-      <c r="M246" t="s">
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>38</v>
       </c>
@@ -13353,11 +14094,14 @@
       <c r="L247" t="s">
         <v>22</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>88</v>
       </c>
@@ -13394,11 +14138,14 @@
       <c r="L248" t="s">
         <v>22</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>78</v>
       </c>
@@ -13435,11 +14182,14 @@
       <c r="L249" t="s">
         <v>23</v>
       </c>
-      <c r="M249" t="s">
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>51</v>
       </c>
@@ -13476,11 +14226,14 @@
       <c r="L250" t="s">
         <v>22</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>95</v>
       </c>
@@ -13517,11 +14270,14 @@
       <c r="L251" t="s">
         <v>22</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>374</v>
       </c>
@@ -13558,11 +14314,14 @@
       <c r="L252" t="s">
         <v>23</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>95</v>
       </c>
@@ -13599,11 +14358,14 @@
       <c r="L253" t="s">
         <v>22</v>
       </c>
-      <c r="M253" t="s">
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -13640,11 +14402,14 @@
       <c r="L254" t="s">
         <v>23</v>
       </c>
-      <c r="M254" t="s">
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>176</v>
       </c>
@@ -13681,11 +14446,14 @@
       <c r="L255" t="s">
         <v>22</v>
       </c>
-      <c r="M255" t="s">
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -13722,11 +14490,14 @@
       <c r="L256" t="s">
         <v>23</v>
       </c>
-      <c r="M256" t="s">
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>538</v>
       </c>
@@ -13763,11 +14534,14 @@
       <c r="L257" t="s">
         <v>22</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>144</v>
       </c>
@@ -13804,11 +14578,14 @@
       <c r="L258" t="s">
         <v>22</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>359</v>
       </c>
@@ -13845,11 +14622,14 @@
       <c r="L259" t="s">
         <v>23</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>937</v>
       </c>
@@ -13886,11 +14666,14 @@
       <c r="L260" t="s">
         <v>22</v>
       </c>
-      <c r="M260" t="s">
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>221</v>
       </c>
@@ -13927,14 +14710,17 @@
       <c r="L261" t="s">
         <v>22</v>
       </c>
-      <c r="M261" t="s">
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261" t="s">
         <v>943</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M42 A248:M260 B247:M247 B261:M261 A44:M246 B43:M43" numberStoredAsText="1"/>
+    <ignoredError sqref="N1:N261 B43:L43 A44:L246 B261:L261 B247:L247 A248:L260 A1:L42" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>